--- a/过程性文件/data/第三问数据/预测结果/第三问预测结果(归一化）.xlsx
+++ b/过程性文件/data/第三问数据/预测结果/第三问预测结果(归一化）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,12 +466,8 @@
           <t>高钾</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.549447571458236</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1769300190746534</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,15 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>铅钡</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2770053185304765</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7986387054828512</v>
-      </c>
+          <t>高钾</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -499,14 +491,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>铅钡</t>
+          <t>高钾</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4362596349344205</v>
+        <v>0.3534421999898287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6987673416908556</v>
+        <v>0.3286101596974937</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +513,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.192383884204009</v>
+        <v>0.1409784000346641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4646364001062618</v>
+        <v>0.1474917842329514</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +531,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2235628852095521</v>
+        <v>0.3542002696393201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1139057167308963</v>
+        <v>0.107350725324126</v>
       </c>
     </row>
     <row r="7">
@@ -556,9 +548,7 @@
           <t>高钾</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.9143208054202568</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -574,9 +564,7 @@
           <t>高钾</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.7888202059884976</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -593,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04618032714783158</v>
+        <v>0.07432920247269367</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7801097930278675</v>
+        <v>0.4301346921466143</v>
       </c>
     </row>
   </sheetData>
